--- a/HRSpy/HRSpy/bin/Debug/Book1.xlsx
+++ b/HRSpy/HRSpy/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R08ca5b2b5d8140bb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R1220d9c2f3f643dd"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{b4463c11-1aa4-4e6f-8bed-4c13e73c59b7}">
+<we:webextension xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{478933a7-a63b-4d91-8c90-4418213f07a2}">
   <we:reference id="bcbe546b-3a4b-4e08-b4f2-0ff3f8bca1fe" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>
